--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs1-Itgb3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H2">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I2">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J2">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N2">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q2">
-        <v>1030.949462027102</v>
+        <v>0.8923802746995557</v>
       </c>
       <c r="R2">
-        <v>9278.54515824392</v>
+        <v>8.031422472296001</v>
       </c>
       <c r="S2">
-        <v>0.2614799557576807</v>
+        <v>0.0009057956358232754</v>
       </c>
       <c r="T2">
-        <v>0.2614799557576808</v>
+        <v>0.0009057956358232754</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H3">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I3">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J3">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q3">
-        <v>1016.121395045236</v>
+        <v>21.86550624809378</v>
       </c>
       <c r="R3">
-        <v>9145.09255540712</v>
+        <v>196.789556232844</v>
       </c>
       <c r="S3">
-        <v>0.2577191096238977</v>
+        <v>0.02219421551115978</v>
       </c>
       <c r="T3">
-        <v>0.2577191096238977</v>
+        <v>0.02219421551115978</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H4">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I4">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J4">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q4">
-        <v>151.6670500990378</v>
+        <v>3.263662046425889</v>
       </c>
       <c r="R4">
-        <v>1365.00345089134</v>
+        <v>29.372958417833</v>
       </c>
       <c r="S4">
-        <v>0.03846734976884036</v>
+        <v>0.003312725440339793</v>
       </c>
       <c r="T4">
-        <v>0.03846734976884036</v>
+        <v>0.003312725440339792</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>191.903427</v>
       </c>
       <c r="I5">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J5">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N5">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q5">
-        <v>461.470853230196</v>
+        <v>18.562775848504</v>
       </c>
       <c r="R5">
-        <v>4153.237679071764</v>
+        <v>167.064982636536</v>
       </c>
       <c r="S5">
-        <v>0.1170429615907969</v>
+        <v>0.01884183439397687</v>
       </c>
       <c r="T5">
-        <v>0.1170429615907969</v>
+        <v>0.01884183439397688</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>191.903427</v>
       </c>
       <c r="I6">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J6">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q6">
         <v>454.8335533683559</v>
@@ -818,10 +818,10 @@
         <v>4093.501980315204</v>
       </c>
       <c r="S6">
-        <v>0.1153595416578625</v>
+        <v>0.4616711724222681</v>
       </c>
       <c r="T6">
-        <v>0.1153595416578625</v>
+        <v>0.4616711724222682</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>191.903427</v>
       </c>
       <c r="I7">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J7">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q7">
-        <v>67.88880114306698</v>
+        <v>67.888801143067</v>
       </c>
       <c r="R7">
         <v>610.999210287603</v>
       </c>
       <c r="S7">
-        <v>0.01721865268199197</v>
+        <v>0.06890938934902803</v>
       </c>
       <c r="T7">
-        <v>0.01721865268199197</v>
+        <v>0.06890938934902803</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>148.15321</v>
       </c>
       <c r="I8">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J8">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N8">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q8">
-        <v>356.2645508539688</v>
+        <v>14.33082708036445</v>
       </c>
       <c r="R8">
-        <v>3206.38095768572</v>
+        <v>128.97744372328</v>
       </c>
       <c r="S8">
-        <v>0.09035946224964114</v>
+        <v>0.01454626575145049</v>
       </c>
       <c r="T8">
-        <v>0.09035946224964116</v>
+        <v>0.01454626575145049</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>148.15321</v>
       </c>
       <c r="I9">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J9">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>21.331052</v>
       </c>
       <c r="O9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q9">
         <v>351.1404251641022</v>
@@ -1004,10 +1004,10 @@
         <v>3160.26382647692</v>
       </c>
       <c r="S9">
-        <v>0.0890598290396401</v>
+        <v>0.3564192011996873</v>
       </c>
       <c r="T9">
-        <v>0.08905982903964012</v>
+        <v>0.3564192011996873</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>148.15321</v>
       </c>
       <c r="I10">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J10">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>3.183889</v>
       </c>
       <c r="O10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q10">
-        <v>52.4114861815211</v>
+        <v>52.41148618152111</v>
       </c>
       <c r="R10">
         <v>471.70337563369</v>
       </c>
       <c r="S10">
-        <v>0.01329313762964858</v>
+        <v>0.05319940029626628</v>
       </c>
       <c r="T10">
-        <v>0.01329313762964858</v>
+        <v>0.05319940029626628</v>
       </c>
     </row>
   </sheetData>
